--- a/biology/Médecine/Christine_Grady/Christine_Grady.xlsx
+++ b/biology/Médecine/Christine_Grady/Christine_Grady.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Grady est une infirmière et bioéthicienne américaine à la tête du service de bioéthique du National Institutes of Health Clinical Center [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Grady est une infirmière et bioéthicienne américaine à la tête du service de bioéthique du National Institutes of Health Clinical Center .
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Enfance et parcours scolaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christine Grady est née et grandit à Livingston, New Jersey [2]. Son père, John H. Grady Jr., diplômé de l'Université Yale et vétéran de la marine des États-Unis, est maire de Livingston. Sa mère, Barbara, est doyenne adjointe à la faculté de droit de l'Université Seton Hall [3].
-Après sa sortie de la Livingston High School, elle obtient une licence en soins infirmiers et en biologie à l'Université de Georgetown en 1974, une maîtrise en soins infirmiers du Boston College en 1978 et un doctorat en philosophie à l'Université de Georgetown en 1993 [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christine Grady est née et grandit à Livingston, New Jersey . Son père, John H. Grady Jr., diplômé de l'Université Yale et vétéran de la marine des États-Unis, est maire de Livingston. Sa mère, Barbara, est doyenne adjointe à la faculté de droit de l'Université Seton Hall .
+Après sa sortie de la Livingston High School, elle obtient une licence en soins infirmiers et en biologie à l'Université de Georgetown en 1974, une maîtrise en soins infirmiers du Boston College en 1978 et un doctorat en philosophie à l'Université de Georgetown en 1993 .
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grady travaille dans le domaine des soins infirmiers, de la recherche et des soins cliniques, se spécialisant pour le VIH [1]. Elle est membre de la Commission présidentielle pour l'étude des questions de bioéthique de 2010 à 2017 [1].
-Grady est membre de la National Academy of Medicine, membre senior du Kennedy Institute of Ethics et membre du Hastings Center et de l'American Academy of Nursing [1]. Elle reçoit le National Institutes of Health CEO Award en 2017 et le Director's Award de la même organisation en 2015 et 2017.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grady travaille dans le domaine des soins infirmiers, de la recherche et des soins cliniques, se spécialisant pour le VIH . Elle est membre de la Commission présidentielle pour l'étude des questions de bioéthique de 2010 à 2017 .
+Grady est membre de la National Academy of Medicine, membre senior du Kennedy Institute of Ethics et membre du Hastings Center et de l'American Academy of Nursing . Elle reçoit le National Institutes of Health CEO Award en 2017 et le Director's Award de la même organisation en 2015 et 2017.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grady est mariée à Anthony Fauci, un immunologiste américain et directeur du National Institute of Allergy and Infectious Diseases (NIAID) des National Institutes of Health. Ils ont trois filles ensemble[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grady est mariée à Anthony Fauci, un immunologiste américain et directeur du National Institute of Allergy and Infectious Diseases (NIAID) des National Institutes of Health. Ils ont trois filles ensemble.
 </t>
         </is>
       </c>
